--- a/rosters/2023/Atlanta/Atlanta.xlsx
+++ b/rosters/2023/Atlanta/Atlanta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -49,36 +49,30 @@
     <t>Onyeka Okongwu</t>
   </si>
   <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>AJ Griffin</t>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
+    <t>John Collins</t>
   </si>
   <si>
     <t>Aaron Holiday</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
     <t>Clint Capela</t>
   </si>
   <si>
-    <t>Justin Holiday</t>
-  </si>
-  <si>
-    <t>Frank Kaminsky</t>
-  </si>
-  <si>
     <t>Bogdan Bogdanović</t>
   </si>
   <si>
@@ -91,7 +85,16 @@
     <t>Tyrese Martin</t>
   </si>
   <si>
-    <t>Jarrett Culver (TW)</t>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>Bruno Fernando</t>
+  </si>
+  <si>
+    <t>Donovan Williams (TW)</t>
   </si>
   <si>
     <t>C</t>
@@ -100,72 +103,69 @@
     <t>SF</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-6</t>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-1</t>
   </si>
   <si>
     <t>6-0</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>7-0</t>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-5</t>
   </si>
   <si>
     <t>December 11, 2000</t>
   </si>
   <si>
+    <t>August 25, 2003</t>
+  </si>
+  <si>
     <t>December 18, 2001</t>
   </si>
   <si>
-    <t>August 25, 2003</t>
+    <t>September 19, 1996</t>
+  </si>
+  <si>
+    <t>September 19, 1998</t>
+  </si>
+  <si>
+    <t>September 23, 1997</t>
   </si>
   <si>
     <t>September 30, 1996</t>
   </si>
   <si>
-    <t>September 19, 1998</t>
-  </si>
-  <si>
-    <t>September 19, 1996</t>
-  </si>
-  <si>
     <t>December 2, 1997</t>
   </si>
   <si>
-    <t>September 23, 1997</t>
-  </si>
-  <si>
     <t>May 18, 1994</t>
   </si>
   <si>
-    <t>April 5, 1989</t>
-  </si>
-  <si>
-    <t>April 4, 1993</t>
-  </si>
-  <si>
     <t>August 18, 1992</t>
   </si>
   <si>
@@ -178,7 +178,16 @@
     <t>March 7, 1999</t>
   </si>
   <si>
-    <t>February 20, 1999</t>
+    <t>April 9, 1999</t>
+  </si>
+  <si>
+    <t>October 24, 1996</t>
+  </si>
+  <si>
+    <t>August 15, 1998</t>
+  </si>
+  <si>
+    <t>September 6, 2001</t>
   </si>
   <si>
     <t>us</t>
@@ -193,99 +202,96 @@
     <t>cz</t>
   </si>
   <si>
+    <t>ao</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>R</t>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>USC</t>
   </si>
   <si>
     <t>Duke</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
     <t>Rhode Island, UConn</t>
   </si>
   <si>
-    <t>Texas Tech</t>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Lipscomb</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Texas, UNLV</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/okongon01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/griffaj01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/johnsja05.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/griffaj01.html</t>
+    <t>https://www.basketball-reference.com/players/m/murrade01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/y/youngtr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/collijo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/holidaa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/y/youngtr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/murrade01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/huntede01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/collijo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/capelca01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/holidju01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/kaminfr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bogdabo01.html</t>
   </si>
   <si>
@@ -298,7 +304,16 @@
     <t>https://www.basketball-reference.com/players/m/martity01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/culveja01.html</t>
+    <t>https://www.basketball-reference.com/players/b/beysa01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mathega01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/f/fernabr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/willido02.html</t>
   </si>
 </sst>
 </file>
@@ -669,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,28 +733,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -747,34 +762,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -782,34 +797,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -817,34 +832,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -858,28 +873,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -887,34 +902,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -922,34 +937,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -957,34 +972,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
       <c r="F9">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -998,25 +1013,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1024,7 +1039,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1036,22 +1051,19 @@
         <v>33</v>
       </c>
       <c r="F11">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
-        <v>72</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1059,34 +1071,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1094,31 +1103,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
       </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1126,40 +1138,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -1167,34 +1179,31 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>22</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1202,60 +1211,89 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F16">
         <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>240</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="F17">
-        <v>195</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F18">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
         <v>64</v>
       </c>
-      <c r="J17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>94</v>
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1276,6 +1314,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Atlanta/Atlanta.xlsx
+++ b/rosters/2023/Atlanta/Atlanta.xlsx
@@ -88,12 +88,12 @@
     <t>Saddiq Bey</t>
   </si>
   <si>
+    <t>Bruno Fernando</t>
+  </si>
+  <si>
     <t>Garrison Mathews</t>
   </si>
   <si>
-    <t>Bruno Fernando</t>
-  </si>
-  <si>
     <t>Donovan Williams (TW)</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>April 9, 1999</t>
   </si>
   <si>
+    <t>August 15, 1998</t>
+  </si>
+  <si>
     <t>October 24, 1996</t>
   </si>
   <si>
-    <t>August 15, 1998</t>
-  </si>
-  <si>
     <t>September 6, 2001</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>Villanova</t>
   </si>
   <si>
+    <t>Maryland</t>
+  </si>
+  <si>
     <t>Lipscomb</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Texas, UNLV</t>
   </si>
   <si>
@@ -307,10 +307,10 @@
     <t>https://www.basketball-reference.com/players/b/beysa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/f/fernabr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/mathega01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/f/fernabr01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/willido02.html</t>
@@ -1172,6 +1172,9 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>41</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -1204,23 +1207,26 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
         <v>68</v>
@@ -1236,23 +1242,26 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
         <v>68</v>

--- a/rosters/2023/Atlanta/Atlanta.xlsx
+++ b/rosters/2023/Atlanta/Atlanta.xlsx
@@ -49,16 +49,19 @@
     <t>Onyeka Okongwu</t>
   </si>
   <si>
+    <t>Dejounte Murray</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
     <t>AJ Griffin</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Dejounte Murray</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
+    <t>De'Andre Hunter</t>
   </si>
   <si>
     <t>John Collins</t>
@@ -67,9 +70,6 @@
     <t>Aaron Holiday</t>
   </si>
   <si>
-    <t>De'Andre Hunter</t>
-  </si>
-  <si>
     <t>Clint Capela</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>C</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -115,18 +115,18 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>6-0</t>
   </si>
   <si>
@@ -142,16 +142,19 @@
     <t>December 11, 2000</t>
   </si>
   <si>
+    <t>September 19, 1996</t>
+  </si>
+  <si>
+    <t>December 18, 2001</t>
+  </si>
+  <si>
+    <t>September 19, 1998</t>
+  </si>
+  <si>
     <t>August 25, 2003</t>
   </si>
   <si>
-    <t>December 18, 2001</t>
-  </si>
-  <si>
-    <t>September 19, 1996</t>
-  </si>
-  <si>
-    <t>September 19, 1998</t>
+    <t>December 2, 1997</t>
   </si>
   <si>
     <t>September 23, 1997</t>
@@ -160,9 +163,6 @@
     <t>September 30, 1996</t>
   </si>
   <si>
-    <t>December 2, 1997</t>
-  </si>
-  <si>
     <t>May 18, 1994</t>
   </si>
   <si>
@@ -208,18 +208,18 @@
     <t>2</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -229,24 +229,24 @@
     <t>USC</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
+    <t>Virginia</t>
+  </si>
+  <si>
     <t>Wake Forest</t>
   </si>
   <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
     <t>Florida State</t>
   </si>
   <si>
@@ -268,25 +268,25 @@
     <t>https://www.basketball-reference.com/players/o/okongon01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/murrade01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/johnsja05.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/y/youngtr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/griffaj01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/johnsja05.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/murrade01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/y/youngtr01.html</t>
+    <t>https://www.basketball-reference.com/players/h/huntede01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/collijo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/holidaa01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/huntede01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/capelca01.html</t>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -774,7 +774,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -803,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -821,7 +821,7 @@
         <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>85</v>
@@ -832,19 +832,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -856,7 +856,7 @@
         <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>86</v>
@@ -867,19 +867,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -891,7 +891,7 @@
         <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>87</v>
@@ -902,19 +902,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -923,7 +923,7 @@
         <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
         <v>74</v>
@@ -937,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -958,7 +958,7 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -972,19 +972,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
@@ -993,7 +993,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
@@ -1045,10 +1045,10 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>220</v>
@@ -1060,7 +1060,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>92</v>
@@ -1112,7 +1112,7 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>210</v>
@@ -1144,10 +1144,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>215</v>
@@ -1159,7 +1159,7 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
@@ -1179,7 +1179,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
@@ -1249,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -1281,10 +1281,10 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F18">
         <v>190</v>
@@ -1296,7 +1296,7 @@
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
         <v>82</v>

--- a/rosters/2023/Atlanta/Atlanta.xlsx
+++ b/rosters/2023/Atlanta/Atlanta.xlsx
@@ -52,12 +52,12 @@
     <t>Dejounte Murray</t>
   </si>
   <si>
+    <t>Trae Young</t>
+  </si>
+  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
     <t>AJ Griffin</t>
   </si>
   <si>
@@ -67,12 +67,12 @@
     <t>John Collins</t>
   </si>
   <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
     <t>Aaron Holiday</t>
   </si>
   <si>
-    <t>Clint Capela</t>
-  </si>
-  <si>
     <t>Bogdan Bogdanović</t>
   </si>
   <si>
@@ -82,18 +82,18 @@
     <t>Trent Forrest (TW)</t>
   </si>
   <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
     <t>Tyrese Martin</t>
   </si>
   <si>
-    <t>Saddiq Bey</t>
+    <t>Garrison Mathews</t>
   </si>
   <si>
     <t>Bruno Fernando</t>
   </si>
   <si>
-    <t>Garrison Mathews</t>
-  </si>
-  <si>
     <t>Donovan Williams (TW)</t>
   </si>
   <si>
@@ -103,12 +103,12 @@
     <t>SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -118,21 +118,21 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>6-1</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-0</t>
   </si>
   <si>
-    <t>6-10</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>September 19, 1996</t>
   </si>
   <si>
+    <t>September 19, 1998</t>
+  </si>
+  <si>
     <t>December 18, 2001</t>
   </si>
   <si>
-    <t>September 19, 1998</t>
-  </si>
-  <si>
     <t>August 25, 2003</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>September 23, 1997</t>
   </si>
   <si>
+    <t>May 18, 1994</t>
+  </si>
+  <si>
     <t>September 30, 1996</t>
   </si>
   <si>
-    <t>May 18, 1994</t>
-  </si>
-  <si>
     <t>August 18, 1992</t>
   </si>
   <si>
@@ -175,18 +175,18 @@
     <t>June 12, 1998</t>
   </si>
   <si>
+    <t>April 9, 1999</t>
+  </si>
+  <si>
     <t>March 7, 1999</t>
   </si>
   <si>
-    <t>April 9, 1999</t>
+    <t>October 24, 1996</t>
   </si>
   <si>
     <t>August 15, 1998</t>
   </si>
   <si>
-    <t>October 24, 1996</t>
-  </si>
-  <si>
     <t>September 6, 2001</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>Washington</t>
   </si>
   <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
@@ -250,18 +250,18 @@
     <t>Florida State</t>
   </si>
   <si>
+    <t>Villanova</t>
+  </si>
+  <si>
     <t>Rhode Island, UConn</t>
   </si>
   <si>
-    <t>Villanova</t>
+    <t>Lipscomb</t>
   </si>
   <si>
     <t>Maryland</t>
   </si>
   <si>
-    <t>Lipscomb</t>
-  </si>
-  <si>
     <t>Texas, UNLV</t>
   </si>
   <si>
@@ -271,12 +271,12 @@
     <t>https://www.basketball-reference.com/players/m/murrade01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/y/youngtr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/johnsja05.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/y/youngtr01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/griffaj01.html</t>
   </si>
   <si>
@@ -286,12 +286,12 @@
     <t>https://www.basketball-reference.com/players/c/collijo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/capelca01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/holidaa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/capelca01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/bogdabo01.html</t>
   </si>
   <si>
@@ -301,16 +301,16 @@
     <t>https://www.basketball-reference.com/players/f/forretr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/beysa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/martity01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/beysa01.html</t>
+    <t>https://www.basketball-reference.com/players/m/mathega01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/f/fernabr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mathega01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/willido02.html</t>
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -809,7 +809,7 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -844,7 +844,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -873,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -891,7 +891,7 @@
         <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>87</v>
@@ -908,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -946,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>235</v>
@@ -972,31 +972,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>90</v>
@@ -1007,28 +1004,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
       </c>
       <c r="F10">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>91</v>
@@ -1077,7 +1077,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -1092,7 +1092,7 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>93</v>
@@ -1109,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -1138,16 +1138,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>215</v>
@@ -1159,7 +1159,7 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
@@ -1173,16 +1173,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>215</v>
@@ -1194,7 +1194,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
@@ -1208,25 +1208,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
         <v>68</v>
@@ -1243,25 +1243,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
         <v>68</v>

--- a/rosters/2023/Atlanta/Atlanta.xlsx
+++ b/rosters/2023/Atlanta/Atlanta.xlsx
@@ -55,18 +55,18 @@
     <t>Trae Young</t>
   </si>
   <si>
+    <t>AJ Griffin</t>
+  </si>
+  <si>
+    <t>John Collins</t>
+  </si>
+  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>AJ Griffin</t>
-  </si>
-  <si>
     <t>De'Andre Hunter</t>
   </si>
   <si>
-    <t>John Collins</t>
-  </si>
-  <si>
     <t>Clint Capela</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Vit Krejci</t>
   </si>
   <si>
+    <t>Saddiq Bey</t>
+  </si>
+  <si>
     <t>Trent Forrest (TW)</t>
   </si>
   <si>
-    <t>Saddiq Bey</t>
-  </si>
-  <si>
     <t>Tyrese Martin</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>6-1</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
@@ -148,18 +148,18 @@
     <t>September 19, 1998</t>
   </si>
   <si>
+    <t>August 25, 2003</t>
+  </si>
+  <si>
+    <t>September 23, 1997</t>
+  </si>
+  <si>
     <t>December 18, 2001</t>
   </si>
   <si>
-    <t>August 25, 2003</t>
-  </si>
-  <si>
     <t>December 2, 1997</t>
   </si>
   <si>
-    <t>September 23, 1997</t>
-  </si>
-  <si>
     <t>May 18, 1994</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>June 19, 2000</t>
   </si>
   <si>
+    <t>April 9, 1999</t>
+  </si>
+  <si>
     <t>June 12, 1998</t>
   </si>
   <si>
-    <t>April 9, 1999</t>
-  </si>
-  <si>
     <t>March 7, 1999</t>
   </si>
   <si>
@@ -214,12 +214,12 @@
     <t>4</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -238,21 +238,21 @@
     <t>Duke</t>
   </si>
   <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
     <t>UCLA</t>
   </si>
   <si>
+    <t>Villanova</t>
+  </si>
+  <si>
     <t>Florida State</t>
   </si>
   <si>
-    <t>Villanova</t>
-  </si>
-  <si>
     <t>Rhode Island, UConn</t>
   </si>
   <si>
@@ -274,18 +274,18 @@
     <t>https://www.basketball-reference.com/players/y/youngtr01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/g/griffaj01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/collijo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/j/johnsja05.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/g/griffaj01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/huntede01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/collijo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/capelca01.html</t>
   </si>
   <si>
@@ -298,10 +298,10 @@
     <t>https://www.basketball-reference.com/players/k/krejcvi01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/b/beysa01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/f/forretr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/beysa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/martity01.html</t>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -844,7 +844,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -867,19 +867,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -888,10 +888,10 @@
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>87</v>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -911,10 +911,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -923,10 +923,10 @@
         <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>88</v>
@@ -937,19 +937,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -958,7 +958,7 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
         <v>75</v>
@@ -1048,7 +1048,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>220</v>
@@ -1092,7 +1092,7 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>93</v>
@@ -1103,19 +1103,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1138,19 +1138,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
@@ -1182,7 +1182,7 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>215</v>
@@ -1194,7 +1194,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
@@ -1252,7 +1252,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>240</v>
@@ -1277,6 +1277,9 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18">
         <v>190</v>
@@ -1296,7 +1299,7 @@
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
         <v>82</v>
